--- a/backend/fms_core/tests/valid_templates/Experiment_run_Axiom_v5_3_0.xlsx
+++ b/backend/fms_core/tests/valid_templates/Experiment_run_Axiom_v5_3_0.xlsx
@@ -2164,7 +2164,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P996"/>
+  <dimension ref="A1:P997"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
@@ -2321,61 +2321,58 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="str">
-        <f aca="false">IF(B7&lt;&gt;"", B7, "")</f>
-        <v>containerAxiom</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
       <c r="C8" s="2" t="str">
         <f aca="false">IF(B8&lt;&gt;"", B8, "")</f>
-        <v/>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="2"/>
+        <v>containerAxiom</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
@@ -2446,7 +2443,7 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="str">
         <f aca="false">IF(B13&lt;&gt;"", B13, "")</f>
@@ -2480,7 +2477,7 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17"/>
+      <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="str">
         <f aca="false">IF(B15&lt;&gt;"", B15, "")</f>
@@ -2497,7 +2494,7 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="str">
         <f aca="false">IF(B16&lt;&gt;"", B16, "")</f>
@@ -2513,7 +2510,7 @@
       <c r="K16" s="16"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="str">
@@ -2650,7 +2647,7 @@
       <c r="L24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3"/>
+      <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="str">
         <f aca="false">IF(B25&lt;&gt;"", B25, "")</f>
@@ -2701,7 +2698,7 @@
       <c r="L27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="str">
         <f aca="false">IF(B28&lt;&gt;"", B28, "")</f>
@@ -2982,7 +2979,12 @@
       <c r="D44" s="16"/>
       <c r="E44" s="3"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="18"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2"/>
@@ -3617,7 +3619,7 @@
       </c>
       <c r="D97" s="16"/>
       <c r="E97" s="3"/>
-      <c r="F97" s="18"/>
+      <c r="F97" s="2"/>
       <c r="G97" s="18"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3659,9 +3661,12 @@
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
+      <c r="C101" s="2" t="str">
+        <f aca="false">IF(B101&lt;&gt;"", B101, "")</f>
+        <v/>
+      </c>
+      <c r="D101" s="16"/>
+      <c r="E101" s="3"/>
       <c r="F101" s="18"/>
       <c r="G101" s="18"/>
     </row>
@@ -4256,8 +4261,8 @@
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
-      <c r="F167" s="2"/>
-      <c r="G167" s="2"/>
+      <c r="F167" s="18"/>
+      <c r="G167" s="18"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="2"/>
@@ -11720,25 +11725,34 @@
       <c r="F996" s="2"/>
       <c r="G996" s="2"/>
     </row>
+    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A997" s="2"/>
+      <c r="B997" s="2"/>
+      <c r="C997" s="2"/>
+      <c r="D997" s="2"/>
+      <c r="E997" s="2"/>
+      <c r="F997" s="2"/>
+      <c r="G997" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I5:L5"/>
   </mergeCells>
-  <conditionalFormatting sqref="C7:C100">
+  <conditionalFormatting sqref="C8:C101">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>SUMPRODUCT(--ISNUMBER(SEARCH(MID(C7, ROW(INDIRECT("1:" &amp; LEN(C7))), 1), "ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz0123456789-_")))&lt;&gt;LEN(C7)</formula>
+      <formula>SUMPRODUCT(--ISNUMBER(SEARCH(MID(C8, ROW(INDIRECT("1:" &amp; LEN(C8))), 1), "ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz0123456789-_")))&lt;&gt;LEN(C8)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D7:D100" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D8:D101" type="list">
       <formula1>Index!$H$2:$H$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K7:K43" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K8:K44" type="list">
       <formula1>Index!$I$2:$I$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E7:E100" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E8:E101" type="list">
       <formula1>Index!$A$2:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -11759,7 +11773,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:I1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -11851,54 +11865,48 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="22"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D6" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E6" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F6" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H6" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I6" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="0" t="str">
-        <f aca="false">IF(B6&lt;&gt;"","ALL","")</f>
-        <v/>
-      </c>
-      <c r="G6" s="3" t="str">
-        <f aca="false">IF(D6&lt;&gt;"",D6,"")</f>
-        <v/>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="2"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -12105,7 +12113,7 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="16"/>
-      <c r="E19" s="23"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="0" t="str">
         <f aca="false">IF(B19&lt;&gt;"","ALL","")</f>
         <v/>
@@ -12122,7 +12130,7 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="0" t="str">
         <f aca="false">IF(B20&lt;&gt;"","ALL","")</f>
         <v/>
@@ -12134,7 +12142,7 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -13498,7 +13506,7 @@
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
+      <c r="D101" s="16"/>
       <c r="E101" s="16"/>
       <c r="F101" s="0" t="str">
         <f aca="false">IF(B101&lt;&gt;"","ALL","")</f>
@@ -13508,12 +13516,15 @@
         <f aca="false">IF(D101&lt;&gt;"",D101,"")</f>
         <v/>
       </c>
+      <c r="H101" s="16"/>
+      <c r="I101" s="16"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="2"/>
-      <c r="B102" s="3"/>
+      <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
+      <c r="E102" s="16"/>
       <c r="F102" s="0" t="str">
         <f aca="false">IF(B102&lt;&gt;"","ALL","")</f>
         <v/>
@@ -13553,9 +13564,9 @@
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
+      <c r="B105" s="3"/>
       <c r="C105" s="2"/>
-      <c r="D105" s="16"/>
+      <c r="D105" s="2"/>
       <c r="F105" s="0" t="str">
         <f aca="false">IF(B105&lt;&gt;"","ALL","")</f>
         <v/>
@@ -26095,38 +26106,52 @@
         <v/>
       </c>
     </row>
+    <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1001" s="2"/>
+      <c r="B1001" s="2"/>
+      <c r="C1001" s="2"/>
+      <c r="D1001" s="16"/>
+      <c r="F1001" s="0" t="str">
+        <f aca="false">IF(B1001&lt;&gt;"","ALL","")</f>
+        <v/>
+      </c>
+      <c r="G1001" s="3" t="str">
+        <f aca="false">IF(D1001&lt;&gt;"",D1001,"")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D101:D104" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D102:D105" type="list">
       <formula1>Index!$C$2:$C$97</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A6:A100" type="list">
-      <formula1>Experiments!$A$7:$A$106</formula1>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A7:A101" type="list">
+      <formula1>Experiments!$A$8:$A$107</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H5:H100" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6:H101" type="none">
       <formula1>Index!$B$2:$B$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I5:I100" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I101" type="list">
       <formula1>Index!$L$2:$L$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E5:E101" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E102" type="none">
       <formula1>Index!$C$2:$C$97</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D5:D100 D105:D1000" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D6:D101 D106:D1001" type="list">
       <formula1>Index!$D$2:$D$97</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G5:G1000" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6:G1001" type="list">
       <formula1>Index!$D$2:$D$97</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A5" type="list">
-      <formula1>Experiments!$A$7:$A$10</formula1>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A6" type="list">
+      <formula1>Experiments!$A$8:$A$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
